--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104815.5597303974</v>
+        <v>-105493.3804106687</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052316</v>
+        <v>313298.4515052319</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058548</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>23.69738124260132</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.0364332929322</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385725</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>107.5010219193906</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>65.73554842808802</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072794</v>
+        <v>20.565306530728</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4441784128631</v>
+        <v>42.84521610603979</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054751</v>
+        <v>46.26644524054757</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215686</v>
+        <v>72.32210790215692</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461587</v>
+        <v>22.93043876461593</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917088</v>
+        <v>29.00181045917094</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420482</v>
+        <v>8.831062059420537</v>
       </c>
       <c r="S13" t="n">
-        <v>40.9716860187126</v>
+        <v>40.97168601871266</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199503</v>
+        <v>29.35851686199508</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013462</v>
+        <v>94.27381875013468</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959517</v>
+        <v>50.72653950959523</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448059</v>
+        <v>95.92823141448065</v>
       </c>
       <c r="X13" t="n">
-        <v>27.5369797333878</v>
+        <v>27.53697973338785</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931369</v>
+        <v>22.75879713931374</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>122.0492982736046</v>
+        <v>107.5010219193906</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079819</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163198</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>28.39741371696072</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>12.41284783308691</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>111.5317073420746</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S15" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072794</v>
+        <v>20.565306530728</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603974</v>
+        <v>42.84521610603979</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054751</v>
+        <v>46.26644524054757</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215686</v>
+        <v>72.32210790215692</v>
       </c>
       <c r="X15" t="n">
-        <v>122.0492982736046</v>
+        <v>22.93043876461593</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917088</v>
+        <v>29.00181045917094</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420482</v>
+        <v>8.831062059420537</v>
       </c>
       <c r="S16" t="n">
-        <v>40.9716860187126</v>
+        <v>40.97168601871266</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199503</v>
+        <v>29.35851686199508</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013462</v>
+        <v>94.27381875013468</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959517</v>
+        <v>50.72653950959523</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448059</v>
+        <v>95.92823141448065</v>
       </c>
       <c r="X16" t="n">
-        <v>27.5369797333878</v>
+        <v>27.53697973338785</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931369</v>
+        <v>22.75879713931374</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868125</v>
       </c>
       <c r="C17" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202675</v>
       </c>
       <c r="D17" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307521</v>
       </c>
       <c r="E17" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248408</v>
       </c>
       <c r="F17" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086141</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927433</v>
       </c>
       <c r="H17" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233374</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661482</v>
       </c>
       <c r="X17" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555405</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929782</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>64.31525006275605</v>
       </c>
       <c r="T18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.3644357981253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927438</v>
       </c>
       <c r="H20" t="n">
         <v>26.0317220423338</v>
@@ -2163,25 +2163,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>64.31525006275605</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G21" t="n">
-        <v>116.2479950980088</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927438</v>
       </c>
       <c r="H23" t="n">
         <v>26.0317220423338</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0492982736045</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3352829456697455</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,25 +2439,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R24" t="n">
-        <v>122.0492982736045</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>122.0492982736045</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>101.3644357981252</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>124.855002394087</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F26" t="n">
         <v>190.2820923918732</v>
@@ -2570,10 +2570,10 @@
         <v>205.9102852902861</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9943484033455</v>
+        <v>133.9943484033456</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751261</v>
+        <v>27.67892728751263</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.3553177683464</v>
+        <v>14.35531776834643</v>
       </c>
       <c r="T26" t="n">
-        <v>9.50175171964662</v>
+        <v>9.501751719646656</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057167</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V26" t="n">
         <v>107.9626263610117</v>
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3633376148752</v>
+        <v>71.11691294352646</v>
       </c>
       <c r="S27" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442361</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275416</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726193</v>
+        <v>27.73176366726196</v>
       </c>
       <c r="W27" t="n">
-        <v>129.435783174036</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X27" t="n">
-        <v>4.39575719133029</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.4671288858853</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542702</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>124.855002394087</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F29" t="n">
         <v>190.2820923918732</v>
@@ -2807,10 +2807,10 @@
         <v>205.9102852902861</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033455</v>
+        <v>133.9943484033456</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751261</v>
+        <v>27.67892728751264</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.3553177683464</v>
+        <v>14.35531776834643</v>
       </c>
       <c r="T29" t="n">
-        <v>9.50175171964662</v>
+        <v>9.501751719646656</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057167</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610117</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.144930581518447</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>49.68390519971189</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442361</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275416</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.73176366726196</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X30" t="n">
-        <v>4.39575719133029</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.4671288858853</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542702</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F32" t="n">
         <v>190.2820923918732</v>
@@ -3047,7 +3047,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751261</v>
+        <v>27.67892728751264</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.3553177683464</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646627</v>
+        <v>9.501751719646649</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057167</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V32" t="n">
         <v>107.9626263610117</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>144.5183327796141</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442361</v>
+        <v>2.030624957442389</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275416</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.73176366726196</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9031015109706</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.4671288858853</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542702</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036218</v>
       </c>
       <c r="E35" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497711</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281484</v>
       </c>
       <c r="G35" t="n">
         <v>170.7342086265613</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962071</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.05644914684683</v>
+        <v>2.056449146846879</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728692</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390179</v>
       </c>
       <c r="X35" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>94.79392122351669</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514643</v>
+        <v>18.61134966514649</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>31.89369258510465</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312425</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747023</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036218</v>
       </c>
       <c r="E38" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497711</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281484</v>
       </c>
       <c r="G38" t="n">
         <v>170.7342086265613</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962071</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.05644914684683</v>
+        <v>2.056449146846879</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728692</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390179</v>
       </c>
       <c r="X38" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>45.62914981244005</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514643</v>
+        <v>164.8793532099654</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312425</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747023</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>23.76731848258094</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0.05283637974929434</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2179311875067</v>
+        <v>26.10849904135864</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>97.17607510657433</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8828275259823</v>
+        <v>130.8828275259832</v>
       </c>
       <c r="F44" t="n">
         <v>162.6031651043605</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.9040332898751</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05283637974929434</v>
       </c>
       <c r="W45" t="n">
-        <v>75.71877289056745</v>
+        <v>26.10849904135864</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.2649315283637</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="C11" t="n">
-        <v>280.2649315283637</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="D11" t="n">
-        <v>280.2649315283637</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="E11" t="n">
-        <v>156.9828120600761</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="F11" t="n">
-        <v>33.70069259178869</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="G11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J11" t="n">
         <v>127.09041603444</v>
       </c>
       <c r="K11" t="n">
-        <v>138.8943684648413</v>
+        <v>243.8388027136277</v>
       </c>
       <c r="L11" t="n">
-        <v>187.2916189518287</v>
+        <v>292.2360532006151</v>
       </c>
       <c r="M11" t="n">
-        <v>270.0188449549457</v>
+        <v>374.9632792037321</v>
       </c>
       <c r="N11" t="n">
-        <v>347.2422479464506</v>
+        <v>452.1866821952371</v>
       </c>
       <c r="O11" t="n">
-        <v>383.2527588456309</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2527588456309</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.0239675444182</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T11" t="n">
-        <v>459.8775635055978</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="U11" t="n">
-        <v>403.5470509966511</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V11" t="n">
-        <v>403.5470509966511</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W11" t="n">
-        <v>403.5470509966511</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="X11" t="n">
-        <v>403.5470509966511</v>
+        <v>379.61030226675</v>
       </c>
       <c r="Y11" t="n">
-        <v>280.2649315283637</v>
+        <v>379.61030226675</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.22126207931485</v>
+        <v>128.6208059460704</v>
       </c>
       <c r="C12" t="n">
-        <v>62.22126207931485</v>
+        <v>128.6208059460704</v>
       </c>
       <c r="D12" t="n">
-        <v>62.22126207931485</v>
+        <v>128.6208059460704</v>
       </c>
       <c r="E12" t="n">
-        <v>62.22126207931485</v>
+        <v>128.6208059460704</v>
       </c>
       <c r="F12" t="n">
-        <v>62.22126207931485</v>
+        <v>128.6208059460704</v>
       </c>
       <c r="G12" t="n">
-        <v>62.22126207931485</v>
+        <v>62.22126207931484</v>
       </c>
       <c r="H12" t="n">
-        <v>62.22126207931485</v>
+        <v>62.22126207931484</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22126207931485</v>
+        <v>62.22126207931484</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K12" t="n">
-        <v>9.763943861888364</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L12" t="n">
-        <v>41.00029403282547</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="M12" t="n">
-        <v>161.829099323694</v>
+        <v>288.0409375000535</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145625</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="O12" t="n">
-        <v>403.486709905431</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.998621254756</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R12" t="n">
-        <v>358.7165017864686</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S12" t="n">
-        <v>358.7165017864686</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T12" t="n">
-        <v>337.9434648867434</v>
+        <v>467.4241561946921</v>
       </c>
       <c r="U12" t="n">
-        <v>234.4644967929423</v>
+        <v>424.1461601279852</v>
       </c>
       <c r="V12" t="n">
-        <v>187.7307137216822</v>
+        <v>377.4123770567251</v>
       </c>
       <c r="W12" t="n">
-        <v>114.6780794770793</v>
+        <v>304.3597428121221</v>
       </c>
       <c r="X12" t="n">
-        <v>91.51602011888141</v>
+        <v>281.1976834539242</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.22126207931485</v>
+        <v>251.9029254143576</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F13" t="n">
-        <v>64.66498138373237</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G13" t="n">
-        <v>64.66498138373237</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H13" t="n">
-        <v>64.66498138373237</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I13" t="n">
-        <v>64.66498138373237</v>
+        <v>39.14145792750017</v>
       </c>
       <c r="J13" t="n">
-        <v>64.66498138373237</v>
+        <v>39.14145792750017</v>
       </c>
       <c r="K13" t="n">
-        <v>142.233233772111</v>
+        <v>142.2332337721119</v>
       </c>
       <c r="L13" t="n">
-        <v>142.233233772111</v>
+        <v>142.2332337721119</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0620390629795</v>
+        <v>142.2332337721119</v>
       </c>
       <c r="N13" t="n">
-        <v>383.890844353848</v>
+        <v>263.0620390629801</v>
       </c>
       <c r="O13" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="P13" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473626</v>
+        <v>374.970579647363</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143196</v>
+        <v>333.5850382143199</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769509</v>
+        <v>303.9299706769511</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313603</v>
+        <v>208.7038911313606</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337896</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481916</v>
+        <v>60.56775888481926</v>
       </c>
       <c r="X13" t="n">
-        <v>32.7526278409931</v>
+        <v>32.75262784099314</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.726476320881</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="C14" t="n">
-        <v>179.726476320881</v>
+        <v>241.6329541578429</v>
       </c>
       <c r="D14" t="n">
-        <v>179.726476320881</v>
+        <v>241.6329541578429</v>
       </c>
       <c r="E14" t="n">
-        <v>179.726476320881</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="F14" t="n">
-        <v>179.726476320881</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="G14" t="n">
-        <v>179.726476320881</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259361</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K14" t="n">
-        <v>130.5927491527569</v>
+        <v>18.06556317397219</v>
       </c>
       <c r="L14" t="n">
-        <v>178.9899996397442</v>
+        <v>66.46281366095957</v>
       </c>
       <c r="M14" t="n">
-        <v>261.7172256428612</v>
+        <v>149.1900396640766</v>
       </c>
       <c r="N14" t="n">
-        <v>338.9406286343661</v>
+        <v>226.4134426555815</v>
       </c>
       <c r="O14" t="n">
-        <v>374.9511395335464</v>
+        <v>262.4239535547618</v>
       </c>
       <c r="P14" t="n">
-        <v>383.2527588456309</v>
+        <v>383.2527588456301</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444182</v>
+        <v>488.0239675444173</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S14" t="n">
-        <v>454.9749715372142</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T14" t="n">
-        <v>454.9749715372142</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="U14" t="n">
-        <v>426.2907152574559</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V14" t="n">
-        <v>303.0085957891685</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W14" t="n">
-        <v>303.0085957891685</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="X14" t="n">
-        <v>303.0085957891685</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.0085957891685</v>
+        <v>364.9150736261302</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.30217399631959</v>
+        <v>122.4222341064082</v>
       </c>
       <c r="C15" t="n">
-        <v>22.30217399631959</v>
+        <v>122.4222341064082</v>
       </c>
       <c r="D15" t="n">
-        <v>22.30217399631959</v>
+        <v>122.4222341064082</v>
       </c>
       <c r="E15" t="n">
-        <v>22.30217399631959</v>
+        <v>122.4222341064082</v>
       </c>
       <c r="F15" t="n">
-        <v>9.763943861888364</v>
+        <v>122.4222341064082</v>
       </c>
       <c r="G15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K15" t="n">
-        <v>9.763943861888364</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3309857893938</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="M15" t="n">
-        <v>161.829099323694</v>
+        <v>288.0409375000535</v>
       </c>
       <c r="N15" t="n">
-        <v>282.6579046145625</v>
+        <v>408.8697427909217</v>
       </c>
       <c r="O15" t="n">
-        <v>403.486709905431</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.998621254756</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R15" t="n">
-        <v>481.998621254756</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="S15" t="n">
-        <v>358.7165017864686</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="T15" t="n">
-        <v>337.9434648867434</v>
+        <v>337.9434648867427</v>
       </c>
       <c r="U15" t="n">
-        <v>294.6654688200366</v>
+        <v>294.6654688200358</v>
       </c>
       <c r="V15" t="n">
-        <v>247.9316857487765</v>
+        <v>247.9316857487756</v>
       </c>
       <c r="W15" t="n">
-        <v>174.8790515041736</v>
+        <v>174.8790515041727</v>
       </c>
       <c r="X15" t="n">
-        <v>51.59693203588614</v>
+        <v>151.7169921459748</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.30217399631959</v>
+        <v>122.4222341064082</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.36184332167614</v>
+        <v>26.36184332167606</v>
       </c>
       <c r="C16" t="n">
-        <v>54.00788507752969</v>
+        <v>26.36184332167606</v>
       </c>
       <c r="D16" t="n">
-        <v>102.7157122474323</v>
+        <v>26.36184332167606</v>
       </c>
       <c r="E16" t="n">
-        <v>154.8949833654357</v>
+        <v>78.54111443967945</v>
       </c>
       <c r="F16" t="n">
-        <v>209.7960208872797</v>
+        <v>133.4421519615234</v>
       </c>
       <c r="G16" t="n">
-        <v>214.9447913367692</v>
+        <v>158.8718008676576</v>
       </c>
       <c r="H16" t="n">
-        <v>243.2596552336556</v>
+        <v>166.7916725179697</v>
       </c>
       <c r="I16" t="n">
-        <v>243.2596552336556</v>
+        <v>196.1691865835815</v>
       </c>
       <c r="J16" t="n">
-        <v>316.9979918744493</v>
+        <v>196.1691865835815</v>
       </c>
       <c r="K16" t="n">
-        <v>316.9979918744493</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="L16" t="n">
-        <v>316.9979918744493</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="M16" t="n">
-        <v>316.9979918744493</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="N16" t="n">
-        <v>316.9979918744493</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="O16" t="n">
-        <v>316.9979918744493</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="P16" t="n">
-        <v>316.9979918744493</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473626</v>
+        <v>374.970579647363</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143196</v>
+        <v>333.5850382143199</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769509</v>
+        <v>303.9299706769511</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313603</v>
+        <v>208.7038911313606</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337896</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481916</v>
+        <v>60.56775888481926</v>
       </c>
       <c r="X16" t="n">
-        <v>32.7526278409931</v>
+        <v>32.75262784099314</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558578</v>
+        <v>286.3198544558574</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618424</v>
+        <v>269.2568483618419</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017574</v>
+        <v>218.146617601757</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130085</v>
+        <v>134.995641813008</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151839</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I17" t="n">
-        <v>53.69130131193866</v>
+        <v>89.24480594465251</v>
       </c>
       <c r="J17" t="n">
-        <v>53.69130131193866</v>
+        <v>173.8160031686921</v>
       </c>
       <c r="K17" t="n">
-        <v>53.69130131193866</v>
+        <v>173.8160031686921</v>
       </c>
       <c r="L17" t="n">
-        <v>102.088551798926</v>
+        <v>222.2132536556795</v>
       </c>
       <c r="M17" t="n">
-        <v>184.815777802043</v>
+        <v>304.9404796587964</v>
       </c>
       <c r="N17" t="n">
-        <v>262.0391807935479</v>
+        <v>382.1638826503014</v>
       </c>
       <c r="O17" t="n">
-        <v>298.0496916927282</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="P17" t="n">
-        <v>298.0496916927282</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="Q17" t="n">
-        <v>298.0496916927282</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="R17" t="n">
-        <v>298.0496916927282</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="S17" t="n">
-        <v>390.7209271994668</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944183</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190497</v>
+        <v>471.0086272190489</v>
       </c>
       <c r="X17" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376812</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.686693385866</v>
+        <v>369.6866933858652</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.763943861888364</v>
+        <v>293.751602733179</v>
       </c>
       <c r="C18" t="n">
-        <v>9.763943861888364</v>
+        <v>293.751602733179</v>
       </c>
       <c r="D18" t="n">
-        <v>9.763943861888364</v>
+        <v>293.751602733179</v>
       </c>
       <c r="E18" t="n">
-        <v>9.763943861888364</v>
+        <v>293.751602733179</v>
       </c>
       <c r="F18" t="n">
-        <v>9.763943861888364</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="G18" t="n">
-        <v>9.763943861888364</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="H18" t="n">
-        <v>9.763943861888364</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="I18" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931484</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K18" t="n">
-        <v>9.763943861888364</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3309857893938</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="M18" t="n">
-        <v>249.1597910802623</v>
+        <v>288.0409375000535</v>
       </c>
       <c r="N18" t="n">
-        <v>282.6579046145625</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="O18" t="n">
-        <v>403.486709905431</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.998621254756</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R18" t="n">
-        <v>358.7165017864686</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="S18" t="n">
-        <v>358.7165017864686</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="T18" t="n">
-        <v>235.4343823181812</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="U18" t="n">
-        <v>235.4343823181812</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="V18" t="n">
-        <v>112.1522628498937</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="W18" t="n">
-        <v>112.1522628498937</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="X18" t="n">
-        <v>112.1522628498937</v>
+        <v>293.751602733179</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.763943861888364</v>
+        <v>293.751602733179</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589143</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558578</v>
+        <v>286.3198544558569</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618424</v>
+        <v>269.2568483618415</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017574</v>
+        <v>218.1466176017565</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130085</v>
+        <v>134.9956418130076</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I20" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J20" t="n">
-        <v>210.073611235521</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K20" t="n">
-        <v>210.073611235521</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L20" t="n">
-        <v>258.4708617225083</v>
+        <v>58.16119434887572</v>
       </c>
       <c r="M20" t="n">
-        <v>341.1980877256253</v>
+        <v>140.8884203519927</v>
       </c>
       <c r="N20" t="n">
-        <v>418.4214907171303</v>
+        <v>218.1118233434977</v>
       </c>
       <c r="O20" t="n">
-        <v>454.4320016163105</v>
+        <v>254.1223342426779</v>
       </c>
       <c r="P20" t="n">
-        <v>488.1971930944183</v>
+        <v>254.1223342426779</v>
       </c>
       <c r="Q20" t="n">
-        <v>488.1971930944183</v>
+        <v>254.1223342426779</v>
       </c>
       <c r="R20" t="n">
-        <v>488.1971930944183</v>
+        <v>254.1223342426779</v>
       </c>
       <c r="S20" t="n">
-        <v>488.1971930944183</v>
+        <v>320.6981276545303</v>
       </c>
       <c r="T20" t="n">
-        <v>488.1971930944183</v>
+        <v>418.1743935494817</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190497</v>
+        <v>471.0086272190489</v>
       </c>
       <c r="X20" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376811</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.686693385866</v>
+        <v>369.6866933858651</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>358.7165017864686</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="C21" t="n">
-        <v>358.7165017864686</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="D21" t="n">
-        <v>358.7165017864686</v>
+        <v>293.751602733179</v>
       </c>
       <c r="E21" t="n">
-        <v>358.7165017864686</v>
+        <v>293.751602733179</v>
       </c>
       <c r="F21" t="n">
-        <v>358.7165017864686</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="G21" t="n">
-        <v>241.2942845157527</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="H21" t="n">
-        <v>118.0121650474652</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931484</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167979</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L21" t="n">
         <v>167.2121322091852</v>
       </c>
       <c r="M21" t="n">
-        <v>288.0409375000537</v>
+        <v>288.0409375000535</v>
       </c>
       <c r="N21" t="n">
-        <v>403.486709905431</v>
+        <v>367.3683878035491</v>
       </c>
       <c r="O21" t="n">
-        <v>403.486709905431</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.998621254756</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R21" t="n">
-        <v>481.998621254756</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="S21" t="n">
-        <v>481.998621254756</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="T21" t="n">
-        <v>481.998621254756</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="U21" t="n">
-        <v>481.998621254756</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="V21" t="n">
-        <v>358.7165017864686</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="W21" t="n">
-        <v>358.7165017864686</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="X21" t="n">
-        <v>358.7165017864686</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="Y21" t="n">
-        <v>358.7165017864686</v>
+        <v>358.7165017864679</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589145</v>
+        <v>315.941787558915</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558571</v>
+        <v>286.3198544558577</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618419</v>
+        <v>269.2568483618423</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017569</v>
+        <v>218.1466176017573</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130081</v>
+        <v>134.9956418130083</v>
       </c>
       <c r="G23" t="n">
         <v>36.05861259151846</v>
@@ -5984,40 +5984,40 @@
         <v>9.763943861888363</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888363</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="J23" t="n">
-        <v>76.33973727374153</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="K23" t="n">
-        <v>76.33973727374153</v>
+        <v>123.0099974227601</v>
       </c>
       <c r="L23" t="n">
-        <v>124.7369877607289</v>
+        <v>171.4072479097474</v>
       </c>
       <c r="M23" t="n">
-        <v>207.4642137638459</v>
+        <v>254.1344739128644</v>
       </c>
       <c r="N23" t="n">
-        <v>284.6876167553508</v>
+        <v>331.3578769043694</v>
       </c>
       <c r="O23" t="n">
-        <v>320.698127654531</v>
+        <v>367.3683878035496</v>
       </c>
       <c r="P23" t="n">
-        <v>320.698127654531</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="Q23" t="n">
-        <v>320.698127654531</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="R23" t="n">
-        <v>320.698127654531</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="S23" t="n">
-        <v>320.698127654531</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="T23" t="n">
-        <v>418.1743935494825</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="U23" t="n">
         <v>488.1971930944181</v>
@@ -6026,13 +6026,13 @@
         <v>488.1971930944181</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190493</v>
+        <v>471.0086272190496</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376815</v>
+        <v>431.7127376376819</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858653</v>
+        <v>369.6866933858658</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="C24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="D24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="E24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="F24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="G24" t="n">
-        <v>118.3508346895559</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3508346895559</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="I24" t="n">
-        <v>10.10261350397901</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="J24" t="n">
         <v>9.763943861888363</v>
       </c>
       <c r="K24" t="n">
-        <v>48.64509028167979</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="L24" t="n">
         <v>167.2121322091852</v>
@@ -6078,40 +6078,40 @@
         <v>288.0409375000537</v>
       </c>
       <c r="N24" t="n">
-        <v>403.4867099054309</v>
+        <v>408.8697427909222</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054309</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="P24" t="n">
         <v>488.1971930944181</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.1971930944181</v>
+        <v>481.9986212547559</v>
       </c>
       <c r="R24" t="n">
-        <v>364.9150736261307</v>
+        <v>481.9986212547559</v>
       </c>
       <c r="S24" t="n">
-        <v>241.6329541578433</v>
+        <v>358.7165017864685</v>
       </c>
       <c r="T24" t="n">
-        <v>241.6329541578433</v>
+        <v>235.4343823181811</v>
       </c>
       <c r="U24" t="n">
-        <v>241.6329541578433</v>
+        <v>235.4343823181811</v>
       </c>
       <c r="V24" t="n">
-        <v>241.6329541578433</v>
+        <v>133.0460633301758</v>
       </c>
       <c r="W24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="X24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="Y24" t="n">
-        <v>241.6329541578433</v>
+        <v>9.763943861888363</v>
       </c>
     </row>
     <row r="25">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.530470300261</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567882</v>
+        <v>885.855379256789</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223568</v>
+        <v>759.7392152223576</v>
       </c>
       <c r="E26" t="n">
-        <v>599.575826521856</v>
+        <v>599.5758265218567</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926912</v>
+        <v>407.3716927926919</v>
       </c>
       <c r="G26" t="n">
-        <v>199.381505630786</v>
+        <v>199.3815056307867</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074064</v>
+        <v>64.03367896074067</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J26" t="n">
         <v>171.7509734792162</v>
@@ -6236,19 +6236,19 @@
         <v>929.9307874696017</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.235767148034</v>
+        <v>1785.235767148035</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.758327455587</v>
+        <v>1803.758327455588</v>
       </c>
       <c r="S26" t="n">
         <v>1789.25800647746</v>
@@ -6257,19 +6257,19 @@
         <v>1779.660277467715</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.051665537844</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.998507597428</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.328534067628</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>271.2729593284608</v>
+        <v>196.5028828318677</v>
       </c>
       <c r="C27" t="n">
-        <v>271.2729593284608</v>
+        <v>196.5028828318677</v>
       </c>
       <c r="D27" t="n">
-        <v>271.2729593284608</v>
+        <v>196.5028828318677</v>
       </c>
       <c r="E27" t="n">
-        <v>271.2729593284608</v>
+        <v>196.5028828318677</v>
       </c>
       <c r="F27" t="n">
-        <v>271.2729593284608</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="G27" t="n">
-        <v>271.2729593284608</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="H27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890318</v>
+        <v>74.95631296890319</v>
       </c>
       <c r="L27" t="n">
         <v>193.5233548964086</v>
@@ -6327,28 +6327,28 @@
         <v>800.7871810738252</v>
       </c>
       <c r="R27" t="n">
-        <v>665.0666380284968</v>
+        <v>728.9519154743035</v>
       </c>
       <c r="S27" t="n">
-        <v>471.6483051958446</v>
+        <v>535.5335826416514</v>
       </c>
       <c r="T27" t="n">
-        <v>469.5971688751958</v>
+        <v>318.4146107168203</v>
       </c>
       <c r="U27" t="n">
-        <v>445.0410733875653</v>
+        <v>293.8585152291898</v>
       </c>
       <c r="V27" t="n">
-        <v>417.0291908953816</v>
+        <v>265.846632737006</v>
       </c>
       <c r="W27" t="n">
-        <v>286.2859755680725</v>
+        <v>211.5158990714795</v>
       </c>
       <c r="X27" t="n">
-        <v>281.845816788951</v>
+        <v>207.0757402923579</v>
       </c>
       <c r="Y27" t="n">
-        <v>271.2729593284608</v>
+        <v>196.5028828318677</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07516654911174</v>
+        <v>103.132328476567</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07516654911174</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="M28" t="n">
-        <v>75.06626805783179</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388991</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914017</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567895</v>
+        <v>885.8553792567883</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223582</v>
+        <v>759.739215222357</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218574</v>
+        <v>599.575826521856</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926928</v>
+        <v>407.3716927926912</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307866</v>
+        <v>199.381505630786</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074064</v>
+        <v>64.03367896074067</v>
       </c>
       <c r="I29" t="n">
         <v>36.07516654911175</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792162</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281796</v>
+        <v>377.2303396281794</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908259</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696019</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.235767148035</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.758327455588</v>
+        <v>1803.758327455587</v>
       </c>
       <c r="S29" t="n">
         <v>1789.25800647746</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
         <v>1742.051665537845</v>
@@ -6500,13 +6500,13 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246.6886456598595</v>
+        <v>147.500085291778</v>
       </c>
       <c r="C30" t="n">
-        <v>246.6886456598595</v>
+        <v>147.500085291778</v>
       </c>
       <c r="D30" t="n">
-        <v>246.6886456598595</v>
+        <v>147.500085291778</v>
       </c>
       <c r="E30" t="n">
-        <v>246.6886456598595</v>
+        <v>147.500085291778</v>
       </c>
       <c r="F30" t="n">
-        <v>86.26092937710357</v>
+        <v>147.500085291778</v>
       </c>
       <c r="G30" t="n">
-        <v>86.26092937710357</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="H30" t="n">
-        <v>86.26092937710357</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="I30" t="n">
-        <v>86.26092937710357</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J30" t="n">
         <v>36.07516654911175</v>
@@ -6564,28 +6564,28 @@
         <v>800.7871810738252</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7871810738252</v>
+        <v>665.0666380284968</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7871810738252</v>
+        <v>665.0666380284968</v>
       </c>
       <c r="T30" t="n">
-        <v>798.7360447531763</v>
+        <v>447.9476661036657</v>
       </c>
       <c r="U30" t="n">
-        <v>774.1799492655458</v>
+        <v>423.3915706160352</v>
       </c>
       <c r="V30" t="n">
-        <v>531.1002311691799</v>
+        <v>395.3796881238514</v>
       </c>
       <c r="W30" t="n">
-        <v>261.7016618994712</v>
+        <v>341.0489544583248</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2615031203497</v>
+        <v>336.6087956792033</v>
       </c>
       <c r="Y30" t="n">
-        <v>246.6886456598595</v>
+        <v>326.0359382187131</v>
       </c>
     </row>
     <row r="31">
@@ -6607,61 +6607,61 @@
         <v>36.07516654911175</v>
       </c>
       <c r="F31" t="n">
-        <v>86.63499439585368</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="G31" t="n">
-        <v>130.4139780595407</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="H31" t="n">
-        <v>130.4139780595407</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="I31" t="n">
-        <v>178.1408268827053</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="J31" t="n">
-        <v>270.2284982810516</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="K31" t="n">
-        <v>270.2284982810516</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="L31" t="n">
-        <v>270.2284982810516</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="M31" t="n">
-        <v>270.2284982810516</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2284982810516</v>
+        <v>95.87107322179776</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388985</v>
+        <v>49.43518041388991</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914014</v>
+        <v>40.34194994914017</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07516654911175</v>
@@ -6677,16 +6677,16 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567889</v>
+        <v>885.855379256789</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223575</v>
+        <v>759.7392152223576</v>
       </c>
       <c r="E32" t="n">
         <v>599.5758265218567</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926919</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G32" t="n">
         <v>199.3815056307866</v>
@@ -6695,19 +6695,19 @@
         <v>64.03367896074064</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J32" t="n">
-        <v>171.750973479216</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696017</v>
+        <v>929.9307874696018</v>
       </c>
       <c r="N32" t="n">
         <v>1217.942176136766</v>
@@ -6737,7 +6737,7 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X32" t="n">
         <v>1358.407736259861</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.07516654911174</v>
+        <v>530.8462029494215</v>
       </c>
       <c r="C33" t="n">
-        <v>36.07516654911174</v>
+        <v>530.8462029494215</v>
       </c>
       <c r="D33" t="n">
-        <v>36.07516654911174</v>
+        <v>370.0660867104532</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07516654911174</v>
+        <v>196.5028828318677</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K33" t="n">
         <v>74.95631296890318</v>
@@ -6813,16 +6813,16 @@
         <v>774.1799492655458</v>
       </c>
       <c r="V33" t="n">
-        <v>531.1002311691799</v>
+        <v>746.1680667733621</v>
       </c>
       <c r="W33" t="n">
-        <v>261.7016618994712</v>
+        <v>691.8373331078354</v>
       </c>
       <c r="X33" t="n">
-        <v>46.64802400960195</v>
+        <v>687.3971743287138</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.07516654911174</v>
+        <v>676.8243168682236</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D34" t="n">
-        <v>103.1323284765671</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E34" t="n">
-        <v>103.1323284765671</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F34" t="n">
-        <v>103.1323284765671</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G34" t="n">
-        <v>125.2465673039435</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H34" t="n">
-        <v>125.2465673039435</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I34" t="n">
-        <v>125.2465673039435</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J34" t="n">
-        <v>125.2465673039435</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K34" t="n">
-        <v>270.2284982810516</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="L34" t="n">
-        <v>270.2284982810516</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="M34" t="n">
-        <v>270.2284982810516</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2284982810516</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2284982810516</v>
+        <v>210.4325916083658</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388991</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914017</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102298</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361755</v>
+        <v>670.4759701361761</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711632</v>
+        <v>579.8911966711638</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400815</v>
+        <v>455.2591985400819</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803356</v>
+        <v>298.586455380336</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J35" t="n">
         <v>196.8113455144153</v>
       </c>
       <c r="K35" t="n">
-        <v>437.1150275604664</v>
+        <v>437.1150275604663</v>
       </c>
       <c r="L35" t="n">
-        <v>485.5122780474537</v>
+        <v>630.0792590310605</v>
       </c>
       <c r="M35" t="n">
-        <v>568.2395040505706</v>
+        <v>712.8064850341774</v>
       </c>
       <c r="N35" t="n">
-        <v>891.075208614822</v>
+        <v>790.0298880256823</v>
       </c>
       <c r="O35" t="n">
-        <v>927.0857195140022</v>
+        <v>826.0403989248625</v>
       </c>
       <c r="P35" t="n">
-        <v>1058.239265802039</v>
+        <v>1058.23926580204</v>
       </c>
       <c r="Q35" t="n">
-        <v>1216.184125155466</v>
+        <v>1216.184125155467</v>
       </c>
       <c r="R35" t="n">
-        <v>1269.531001360107</v>
+        <v>1269.531001360108</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666531</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000717</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.96214562972</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383355</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X35" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081777</v>
+        <v>900.8863438081784</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="C36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="D36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="E36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722338</v>
+        <v>78.7685409046499</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701477</v>
+        <v>65.1923691070148</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345202</v>
@@ -7041,25 +7041,25 @@
         <v>791.0232372119365</v>
       </c>
       <c r="S36" t="n">
-        <v>597.6049043792843</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="T36" t="n">
-        <v>380.4859324544533</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="U36" t="n">
-        <v>140.8620013626407</v>
+        <v>551.3993061201238</v>
       </c>
       <c r="V36" t="n">
-        <v>45.11056578333088</v>
+        <v>308.3195880237579</v>
       </c>
       <c r="W36" t="n">
-        <v>26.31122268722338</v>
+        <v>289.5202449276503</v>
       </c>
       <c r="X36" t="n">
-        <v>26.31122268722338</v>
+        <v>289.5202449276503</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.31122268722338</v>
+        <v>257.304393831585</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.37675866454126</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="C37" t="n">
-        <v>27.37675866454126</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="D37" t="n">
-        <v>27.37675866454126</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="E37" t="n">
-        <v>27.37675866454126</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="F37" t="n">
-        <v>27.37675866454126</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="G37" t="n">
-        <v>27.37675866454126</v>
+        <v>28.4394088332669</v>
       </c>
       <c r="H37" t="n">
-        <v>27.37675866454126</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="I37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="J37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="K37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="L37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="M37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="U37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769837</v>
       </c>
       <c r="V37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769837</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.37675866454126</v>
+        <v>26.3112226872234</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102302</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C38" t="n">
-        <v>670.475970136176</v>
+        <v>670.4759701361763</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711637</v>
+        <v>579.8911966711639</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400819</v>
+        <v>455.2591985400821</v>
       </c>
       <c r="F38" t="n">
-        <v>298.586455380336</v>
+        <v>298.5864553803361</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I38" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J38" t="n">
         <v>196.8113455144153</v>
       </c>
       <c r="K38" t="n">
-        <v>437.1150275604664</v>
+        <v>437.1150275604663</v>
       </c>
       <c r="L38" t="n">
-        <v>485.5122780474537</v>
+        <v>485.5122780474536</v>
       </c>
       <c r="M38" t="n">
-        <v>568.2395040505706</v>
+        <v>811.113658801843</v>
       </c>
       <c r="N38" t="n">
-        <v>776.6164533301121</v>
+        <v>1133.949363366094</v>
       </c>
       <c r="O38" t="n">
-        <v>1058.239265802039</v>
+        <v>1169.959874265274</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.239265802039</v>
+        <v>1169.959874265274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1216.184125155466</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="R38" t="n">
-        <v>1269.531001360107</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666531</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000717</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.96214562972</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383355</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X38" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081778</v>
+        <v>900.8863438081783</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>72.40127300281939</v>
+        <v>295.3395601117685</v>
       </c>
       <c r="C39" t="n">
-        <v>72.40127300281939</v>
+        <v>295.3395601117685</v>
       </c>
       <c r="D39" t="n">
-        <v>72.40127300281939</v>
+        <v>134.5594438728003</v>
       </c>
       <c r="E39" t="n">
-        <v>72.40127300281939</v>
+        <v>134.5594438728003</v>
       </c>
       <c r="F39" t="n">
-        <v>72.40127300281939</v>
+        <v>134.5594438728003</v>
       </c>
       <c r="G39" t="n">
-        <v>72.40127300281939</v>
+        <v>134.5594438728003</v>
       </c>
       <c r="H39" t="n">
-        <v>72.40127300281939</v>
+        <v>134.5594438728003</v>
       </c>
       <c r="I39" t="n">
-        <v>72.40127300281939</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701477</v>
+        <v>65.1923691070148</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345202</v>
@@ -7275,28 +7275,28 @@
         <v>791.0232372119365</v>
       </c>
       <c r="R39" t="n">
-        <v>791.0232372119365</v>
+        <v>655.3026941666079</v>
       </c>
       <c r="S39" t="n">
-        <v>791.0232372119365</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="T39" t="n">
-        <v>573.9042652871054</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="U39" t="n">
-        <v>334.2803341952928</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="V39" t="n">
-        <v>91.2006160989269</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="W39" t="n">
-        <v>72.40127300281939</v>
+        <v>295.3395601117685</v>
       </c>
       <c r="X39" t="n">
-        <v>72.40127300281939</v>
+        <v>295.3395601117685</v>
       </c>
       <c r="Y39" t="n">
-        <v>72.40127300281939</v>
+        <v>295.3395601117685</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="C40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="D40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="E40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="G40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="H40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="K40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="L40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="U40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769837</v>
       </c>
       <c r="V40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769837</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="X40" t="n">
-        <v>40.15637327036535</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.15637327036535</v>
+        <v>26.3112226872234</v>
       </c>
     </row>
     <row r="41">
@@ -7412,28 +7412,28 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1252542015557</v>
+        <v>235.1417708752005</v>
       </c>
       <c r="L41" t="n">
-        <v>534.9195184764587</v>
+        <v>283.5390213621878</v>
       </c>
       <c r="M41" t="n">
-        <v>855.8368681698721</v>
+        <v>366.2662473653048</v>
       </c>
       <c r="N41" t="n">
-        <v>933.060271161377</v>
+        <v>681.6797740471061</v>
       </c>
       <c r="O41" t="n">
-        <v>969.0707820605572</v>
+        <v>955.8804086365827</v>
       </c>
       <c r="P41" t="n">
-        <v>1193.847471055285</v>
+        <v>1180.65709763131</v>
       </c>
       <c r="Q41" t="n">
-        <v>1344.370152526262</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.294850848452</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S41" t="n">
         <v>1390.294850848452</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>351.9702849228245</v>
+        <v>546.9442339001699</v>
       </c>
       <c r="C42" t="n">
-        <v>351.9702849228245</v>
+        <v>546.9442339001699</v>
       </c>
       <c r="D42" t="n">
-        <v>351.9702849228245</v>
+        <v>386.1641176612017</v>
       </c>
       <c r="E42" t="n">
-        <v>178.407081044239</v>
+        <v>212.6009137826161</v>
       </c>
       <c r="F42" t="n">
-        <v>178.407081044239</v>
+        <v>52.17319749986021</v>
       </c>
       <c r="G42" t="n">
-        <v>28.16580509321279</v>
+        <v>52.17319749986021</v>
       </c>
       <c r="H42" t="n">
-        <v>28.16580509321279</v>
+        <v>52.17319749986021</v>
       </c>
       <c r="I42" t="n">
-        <v>28.16580509321279</v>
+        <v>52.17319749986021</v>
       </c>
       <c r="J42" t="n">
         <v>28.16580509321279</v>
@@ -7521,19 +7521,19 @@
         <v>792.877819617926</v>
       </c>
       <c r="U42" t="n">
-        <v>553.2538885261133</v>
+        <v>792.877819617926</v>
       </c>
       <c r="V42" t="n">
-        <v>553.2005184455585</v>
+        <v>792.8244495373712</v>
       </c>
       <c r="W42" t="n">
-        <v>351.9702849228245</v>
+        <v>766.4522282834736</v>
       </c>
       <c r="X42" t="n">
-        <v>351.9702849228245</v>
+        <v>546.9442339001699</v>
       </c>
       <c r="Y42" t="n">
-        <v>351.9702849228245</v>
+        <v>546.9442339001699</v>
       </c>
     </row>
     <row r="43">
@@ -7631,10 +7631,10 @@
         <v>612.0372917083137</v>
       </c>
       <c r="E44" t="n">
-        <v>479.832415419442</v>
+        <v>479.8324154194414</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019061</v>
+        <v>315.5867941019055</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516298</v>
@@ -7649,31 +7649,31 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015556</v>
+        <v>235.1417708752005</v>
       </c>
       <c r="L44" t="n">
-        <v>552.9149222886462</v>
+        <v>283.5390213621878</v>
       </c>
       <c r="M44" t="n">
-        <v>635.6421482917631</v>
+        <v>366.2662473653048</v>
       </c>
       <c r="N44" t="n">
-        <v>712.8655512832679</v>
+        <v>681.6797740471061</v>
       </c>
       <c r="O44" t="n">
-        <v>987.0661858727445</v>
+        <v>955.8804086365827</v>
       </c>
       <c r="P44" t="n">
-        <v>1211.842874867472</v>
+        <v>1180.65709763131</v>
       </c>
       <c r="Q44" t="n">
-        <v>1362.365556338449</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.29025466064</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848452</v>
       </c>
       <c r="T44" t="n">
         <v>1408.29025466064</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="C45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="D45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="E45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="F45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="G45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="H45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="I45" t="n">
         <v>28.16580509321279</v>
@@ -7746,31 +7746,31 @@
         <v>792.8778196179259</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782636</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782636</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782636</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782636</v>
       </c>
       <c r="U45" t="n">
-        <v>792.8778196179259</v>
+        <v>607.9883050612181</v>
       </c>
       <c r="V45" t="n">
-        <v>549.7981015215599</v>
+        <v>607.9349349806632</v>
       </c>
       <c r="W45" t="n">
-        <v>473.3144925411888</v>
+        <v>581.5627137267657</v>
       </c>
       <c r="X45" t="n">
-        <v>253.8064981578851</v>
+        <v>362.054719343462</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.16580509321279</v>
+        <v>136.4140262787897</v>
       </c>
     </row>
     <row r="46">
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.83426761919445</v>
+        <v>46.65566792934911</v>
       </c>
       <c r="C46" t="n">
-        <v>30.83426761919445</v>
+        <v>46.65566792934911</v>
       </c>
       <c r="D46" t="n">
-        <v>30.83426761919445</v>
+        <v>46.65566792934911</v>
       </c>
       <c r="E46" t="n">
-        <v>30.83426761919445</v>
+        <v>46.65566792934911</v>
       </c>
       <c r="F46" t="n">
-        <v>131.4867779132287</v>
+        <v>46.65566792934911</v>
       </c>
       <c r="G46" t="n">
-        <v>131.4867779132287</v>
+        <v>46.65566792934911</v>
       </c>
       <c r="H46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="I46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4867779132287</v>
+        <v>94.47805657986473</v>
       </c>
       <c r="R46" t="n">
         <v>131.4867779132287</v>
@@ -7846,10 +7846,10 @@
         <v>28.16580509321279</v>
       </c>
       <c r="X46" t="n">
-        <v>30.83426761919445</v>
+        <v>46.65566792934911</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.83426761919445</v>
+        <v>46.65566792934911</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>152.0917238005119</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N12" t="n">
-        <v>224.1952211518978</v>
+        <v>218.7578141968555</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222148</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>150.6468851822428</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518978</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222148</v>
+        <v>200.9542711289088</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N18" t="n">
-        <v>135.9824011957682</v>
+        <v>218.7578141968555</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222148</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9486,16 +9486,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N21" t="n">
-        <v>218.7578141968561</v>
+        <v>182.2746605585918</v>
       </c>
       <c r="O21" t="n">
-        <v>120.8255334486102</v>
+        <v>242.8748317222145</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9726,13 +9726,13 @@
         <v>238.8597051383724</v>
       </c>
       <c r="N24" t="n">
-        <v>218.757814196856</v>
+        <v>224.1952211518978</v>
       </c>
       <c r="O24" t="n">
-        <v>120.8255334486102</v>
+        <v>200.9542711289091</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029786</v>
+        <v>57.65546642937431</v>
       </c>
       <c r="C11" t="n">
         <v>155.8230217063241</v>
       </c>
       <c r="D11" t="n">
-        <v>143.3896839673725</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E11" t="n">
-        <v>55.04713811317686</v>
+        <v>55.04713811317714</v>
       </c>
       <c r="F11" t="n">
-        <v>86.76747569155418</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G11" t="n">
-        <v>200.7475856209704</v>
+        <v>102.3956685899674</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766311</v>
+        <v>152.5290299766312</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079819</v>
+        <v>46.21360886079825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163198</v>
+        <v>32.88999934163203</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293226</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.7672073838573</v>
       </c>
       <c r="V11" t="n">
         <v>126.4973079342973</v>
@@ -23321,10 +23321,10 @@
         <v>143.5139881509122</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198514</v>
+        <v>57.89921670046081</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.85379346999059</v>
+        <v>187.9030917435952</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.65546642937403</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063241</v>
+        <v>33.77372343271981</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3896839673725</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0964363867814</v>
+        <v>55.04713811317714</v>
       </c>
       <c r="F14" t="n">
-        <v>208.8167739651587</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4449668635717</v>
+        <v>224.4449668635718</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47973170302654</v>
+        <v>45.02800805724053</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.21360886079825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.88999934163203</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293221</v>
+        <v>28.03643329293226</v>
       </c>
       <c r="U14" t="n">
-        <v>27.36979366689653</v>
+        <v>55.76720738385731</v>
       </c>
       <c r="V14" t="n">
-        <v>4.448009660692719</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5139881509122</v>
+        <v>21.46468987730788</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198514</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y14" t="n">
         <v>187.9030917435952</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>975719.99595096</v>
+        <v>975719.9959509597</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975719.9959509597</v>
+        <v>975719.9959509596</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>507110.8972264644</v>
+        <v>507110.8972264642</v>
       </c>
       <c r="C2" t="n">
-        <v>507110.8972264646</v>
+        <v>507110.8972264642</v>
       </c>
       <c r="D2" t="n">
         <v>507110.8972264642</v>
       </c>
       <c r="E2" t="n">
-        <v>436994.3011867757</v>
+        <v>436994.3011867758</v>
       </c>
       <c r="F2" t="n">
         <v>436994.301186776</v>
@@ -26329,31 +26329,31 @@
         <v>508138.1655936579</v>
       </c>
       <c r="H2" t="n">
-        <v>508138.1655936578</v>
+        <v>508138.1655936579</v>
       </c>
       <c r="I2" t="n">
-        <v>508138.1655936579</v>
+        <v>508138.1655936581</v>
       </c>
       <c r="J2" t="n">
-        <v>508138.1655936586</v>
+        <v>508138.1655936585</v>
       </c>
       <c r="K2" t="n">
-        <v>508138.1655936586</v>
+        <v>508138.1655936585</v>
       </c>
       <c r="L2" t="n">
-        <v>508138.1655936584</v>
+        <v>508138.1655936583</v>
       </c>
       <c r="M2" t="n">
-        <v>508138.1655936581</v>
+        <v>508138.1655936582</v>
       </c>
       <c r="N2" t="n">
-        <v>508138.1655936581</v>
+        <v>508138.1655936582</v>
       </c>
       <c r="O2" t="n">
-        <v>508138.1655936581</v>
+        <v>508138.1655936582</v>
       </c>
       <c r="P2" t="n">
-        <v>508138.1655936583</v>
+        <v>508138.1655936582</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097987</v>
+        <v>28140.86133097981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240164</v>
+        <v>68716.99883240157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>461965.1541894153</v>
       </c>
       <c r="E4" t="n">
-        <v>355249.966602852</v>
+        <v>355249.9666028519</v>
       </c>
       <c r="F4" t="n">
         <v>355249.966602852</v>
@@ -26433,7 +26433,7 @@
         <v>425753.4766314353</v>
       </c>
       <c r="H4" t="n">
-        <v>425753.4766314353</v>
+        <v>425753.4766314352</v>
       </c>
       <c r="I4" t="n">
         <v>425753.4766314353</v>
@@ -26448,7 +26448,7 @@
         <v>424916.7517290888</v>
       </c>
       <c r="M4" t="n">
-        <v>424375.1958291386</v>
+        <v>424375.1958291387</v>
       </c>
       <c r="N4" t="n">
         <v>424375.1958291387</v>
@@ -26457,7 +26457,7 @@
         <v>424475.2891828689</v>
       </c>
       <c r="P4" t="n">
-        <v>424475.289182869</v>
+        <v>424475.2891828688</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.8622633483</v>
+        <v>26025.86226334828</v>
       </c>
       <c r="F5" t="n">
-        <v>26025.8622633483</v>
+        <v>26025.86226334828</v>
       </c>
       <c r="G5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407673</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="I5" t="n">
         <v>36660.36444407674</v>
       </c>
       <c r="J5" t="n">
+        <v>47580.58365082262</v>
+      </c>
+      <c r="K5" t="n">
         <v>47580.58365082261</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47580.58365082262</v>
       </c>
       <c r="L5" t="n">
         <v>47580.58365082261</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11518.14303704908</v>
+        <v>11513.67665284377</v>
       </c>
       <c r="C6" t="n">
-        <v>11518.14303704931</v>
+        <v>11513.67665284371</v>
       </c>
       <c r="D6" t="n">
-        <v>11518.14303704896</v>
+        <v>11513.67665284377</v>
       </c>
       <c r="E6" t="n">
-        <v>-219654.5747639923</v>
+        <v>-219963.8959135872</v>
       </c>
       <c r="F6" t="n">
-        <v>55718.47232057567</v>
+        <v>55409.15117098056</v>
       </c>
       <c r="G6" t="n">
-        <v>-55473.52182929202</v>
+        <v>-55473.52182929213</v>
       </c>
       <c r="H6" t="n">
-        <v>45724.32451814575</v>
+        <v>45724.32451814605</v>
       </c>
       <c r="I6" t="n">
-        <v>45724.32451814586</v>
+        <v>45724.32451814604</v>
       </c>
       <c r="J6" t="n">
-        <v>-119547.2185970256</v>
+        <v>-119547.2185970258</v>
       </c>
       <c r="K6" t="n">
-        <v>35640.83021374712</v>
+        <v>35640.83021374707</v>
       </c>
       <c r="L6" t="n">
-        <v>-65557.01613369086</v>
+        <v>-65557.01613369104</v>
       </c>
       <c r="M6" t="n">
-        <v>12504.90452870943</v>
+        <v>12504.9045287096</v>
       </c>
       <c r="N6" t="n">
-        <v>40645.76585968929</v>
+        <v>40645.7658596894</v>
       </c>
       <c r="O6" t="n">
-        <v>-28950.53110408575</v>
+        <v>-28950.53110408557</v>
       </c>
       <c r="P6" t="n">
-        <v>39766.46772831601</v>
+        <v>39766.46772831607</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="G2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H2" t="n">
         <v>320.879783609152</v>
@@ -26716,10 +26716,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="I4" t="n">
         <v>122.0492982736045</v>
       </c>
       <c r="J4" t="n">
+        <v>450.9395818638969</v>
+      </c>
+      <c r="K4" t="n">
         <v>450.9395818638968</v>
-      </c>
-      <c r="K4" t="n">
-        <v>450.9395818638969</v>
       </c>
       <c r="L4" t="n">
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="O4" t="n">
         <v>352.0725636651599</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384303</v>
+        <v>86.41984931384295</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372484</v>
+        <v>35.17607666372476</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763082</v>
+        <v>78.9226999376308</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486772</v>
+        <v>23.18228007486749</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384303</v>
+        <v>86.41984931384295</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="K11" t="n">
-        <v>17.28542621928962</v>
+        <v>123.2899052584678</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,13 +28129,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.54892393491821</v>
+        <v>13.54892393491819</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.3824756748547</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S11" t="n">
         <v>194.3824756748547</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>54.7011961240614</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7388631915159</v>
+        <v>83.00331476342789</v>
       </c>
       <c r="H12" t="n">
         <v>125.6800758778345</v>
@@ -28211,10 +28211,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R12" t="n">
-        <v>12.31403934127064</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
         <v>191.4841495043256</v>
@@ -28223,7 +28223,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="U12" t="n">
-        <v>134.7835133680314</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V12" t="n">
         <v>194.3824756748547</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3824756748547</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959616282545</v>
@@ -28266,25 +28266,25 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7082190429235</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="J13" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
-        <v>144.8225324110398</v>
+        <v>170.6038692355177</v>
       </c>
       <c r="L13" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M13" t="n">
-        <v>146.5116571916061</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8328896397047</v>
+        <v>137.8328896397044</v>
       </c>
       <c r="O13" t="n">
-        <v>36.79854607717667</v>
+        <v>158.847844350781</v>
       </c>
       <c r="P13" t="n">
         <v>57.89645227716782</v>
@@ -28348,10 +28348,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="J14" t="n">
-        <v>75.87088762177224</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K14" t="n">
-        <v>127.4115402197615</v>
+        <v>13.74771599876692</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>21.9343979875288</v>
+        <v>135.5982222085225</v>
       </c>
       <c r="Q14" t="n">
         <v>194.3824756748547</v>
@@ -28415,10 +28415,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>146.4105912868414</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7388631915159</v>
+        <v>37.20715584944132</v>
       </c>
       <c r="H15" t="n">
         <v>125.6800758778345</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127087</v>
       </c>
       <c r="S15" t="n">
-        <v>69.43485123072108</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T15" t="n">
         <v>194.3824756748547</v>
@@ -28469,7 +28469,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="X15" t="n">
-        <v>95.26361616586604</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="Y15" t="n">
         <v>194.3824756748547</v>
@@ -28485,10 +28485,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="C16" t="n">
-        <v>194.3824756748547</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>194.3824756748547</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>194.3824756748547</v>
@@ -28497,31 +28497,31 @@
         <v>194.3824756748547</v>
       </c>
       <c r="G16" t="n">
-        <v>173.896739860062</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H16" t="n">
+        <v>173.7814734055877</v>
+      </c>
+      <c r="I16" t="n">
         <v>194.3824756748547</v>
       </c>
-      <c r="I16" t="n">
-        <v>164.7082190429235</v>
-      </c>
       <c r="J16" t="n">
-        <v>194.3824756748547</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176846</v>
+        <v>188.5200605953728</v>
       </c>
       <c r="L16" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M16" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N16" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O16" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717666</v>
       </c>
       <c r="P16" t="n">
         <v>57.89645227716782</v>
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="C17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="D17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="E17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="F17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="G17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I17" t="n">
-        <v>284.9671526670169</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177224</v>
+        <v>161.2963393632263</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156971</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491821</v>
+        <v>13.54892393491819</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870595</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R17" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S17" t="n">
-        <v>320.879783609152</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U17" t="n">
-        <v>250.149683058712</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="W17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="X17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>36.774140846324</v>
       </c>
       <c r="G18" t="n">
         <v>148.7388631915159</v>
@@ -28661,10 +28661,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.31403934127064</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4841495043256</v>
+        <v>127.1688994415696</v>
       </c>
       <c r="T18" t="n">
-        <v>92.89848393197812</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>118.5996226417977</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586627</v>
       </c>
       <c r="Y18" t="n">
-        <v>122.0198503359003</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28749,16 +28749,16 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M19" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N19" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O19" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717666</v>
       </c>
       <c r="P19" t="n">
         <v>57.89645227716782</v>
@@ -28819,13 +28819,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I20" t="n">
-        <v>320.879783609152</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>197.9201858953768</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156971</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>47.65517795320886</v>
+        <v>13.54892393491819</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870595</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R20" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2724750164867</v>
+        <v>294.5207511900749</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4189089677869</v>
+        <v>320.879783609152</v>
       </c>
       <c r="U20" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28883,25 +28883,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>94.85706501382249</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>36.774140846324</v>
       </c>
       <c r="G21" t="n">
-        <v>32.49086809350716</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H21" t="n">
-        <v>3.630777604229912</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127087</v>
       </c>
       <c r="S21" t="n">
         <v>191.4841495043256</v>
@@ -28937,7 +28937,7 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
-        <v>118.5996226417977</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28986,16 +28986,16 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M22" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N22" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O22" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717666</v>
       </c>
       <c r="P22" t="n">
         <v>57.89645227716782</v>
@@ -29056,13 +29056,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5960845356529</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J23" t="n">
-        <v>143.1191637953613</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946156985</v>
+        <v>39.46849596444747</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491821</v>
+        <v>135.5982222085227</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870595</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
@@ -29089,10 +29089,10 @@
         <v>227.2724750164867</v>
       </c>
       <c r="T23" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>320.879783609152</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>26.68956491791138</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H24" t="n">
         <v>125.6800758778345</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>51.59746208958248</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,25 +29159,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.31403934127068</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S24" t="n">
         <v>69.43485123072111</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9477822055827</v>
+        <v>92.89848393197815</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>139.284485117277</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>144.6552853034071</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29223,16 +29223,16 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M25" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N25" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O25" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717666</v>
       </c>
       <c r="P25" t="n">
         <v>57.89645227716782</v>
@@ -29308,7 +29308,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9171572481398</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O26" t="n">
         <v>212.9171572481403</v>
@@ -29363,16 +29363,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
         <v>51.93274503525222</v>
@@ -29396,16 +29396,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>63.24642467134875</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>212.9171572481403</v>
@@ -29414,7 +29414,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="W27" t="n">
-        <v>137.2688004029756</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X27" t="n">
         <v>212.9171572481403</v>
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29460,16 +29460,16 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383527</v>
+        <v>200.2202198773552</v>
       </c>
       <c r="M28" t="n">
-        <v>63.84730993691064</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N28" t="n">
-        <v>212.9171572481403</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O28" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717666</v>
       </c>
       <c r="P28" t="n">
         <v>57.89645227716782</v>
@@ -29536,7 +29536,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9171572481403</v>
+        <v>212.91715724814</v>
       </c>
       <c r="L29" t="n">
         <v>212.9171572481403</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29600,19 +29600,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388631915159</v>
+        <v>145.5939326099975</v>
       </c>
       <c r="H30" t="n">
         <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.248839835540331</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,25 +29633,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X30" t="n">
         <v>212.9171572481403</v>
@@ -29679,34 +29679,34 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>189.9974153969738</v>
+        <v>199.3267879484325</v>
       </c>
       <c r="G31" t="n">
-        <v>212.9171572481403</v>
+        <v>168.6959616282545</v>
       </c>
       <c r="H31" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>212.9171572481403</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J31" t="n">
-        <v>212.9171572481403</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
         <v>66.47076232176846</v>
       </c>
       <c r="L31" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M31" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N31" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O31" t="n">
-        <v>36.79854607717667</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P31" t="n">
         <v>57.89645227716782</v>
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>32.23216161805163</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388631915159</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265605</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29885,13 +29885,13 @@
         <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
-        <v>4.409812928500031</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
         <v>212.9171572481403</v>
@@ -29910,7 +29910,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.9171572481403</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>191.0335766054024</v>
+        <v>168.6959616282545</v>
       </c>
       <c r="H34" t="n">
         <v>165.7816030517371</v>
@@ -29931,22 +29931,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
+        <v>66.47076232176846</v>
+      </c>
+      <c r="L34" t="n">
+        <v>31.43620997383526</v>
+      </c>
+      <c r="M34" t="n">
+        <v>24.46235891800149</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15.78359136610009</v>
+      </c>
+      <c r="O34" t="n">
         <v>212.9171572481403</v>
       </c>
-      <c r="L34" t="n">
-        <v>31.43620997383527</v>
-      </c>
-      <c r="M34" t="n">
-        <v>24.4623589180015</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.7835913661001</v>
-      </c>
-      <c r="O34" t="n">
-        <v>36.79854607717667</v>
-      </c>
       <c r="P34" t="n">
-        <v>57.89645227716782</v>
+        <v>118.2963580071537</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8139378168763</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I35" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="K35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>146.0272535187949</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>146.0272535187935</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="R35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="S35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="T35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30086,7 +30086,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,25 +30113,25 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>145.8549996918856</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>191.490593548921</v>
       </c>
     </row>
     <row r="37">
@@ -30156,13 +30156,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6959616282545</v>
+        <v>170.845644604056</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7816030517371</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I37" t="n">
-        <v>248.0932339118652</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J37" t="n">
         <v>119.8993073508208</v>
@@ -30198,19 +30198,19 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.2175717811562</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I38" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="K38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>245.3274290416895</v>
       </c>
       <c r="N38" t="n">
-        <v>132.4783295838753</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="O38" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>13.54892393491825</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.0932339118652</v>
+        <v>235.6249518335496</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118652</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S38" t="n">
-        <v>248.0932339118652</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118652</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30320,10 +30320,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.303595222812184</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,22 +30347,22 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118652</v>
+        <v>101.8252303670462</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>248.0932339118652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30420,7 +30420,7 @@
         <v>36.79854607717668</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89645227716784</v>
+        <v>142.3577661130973</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8139378168763</v>
@@ -30435,16 +30435,16 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9044559972748</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30484,19 +30484,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K41" t="n">
+        <v>49.70367713529426</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="L41" t="n">
-        <v>63.02728665446037</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.5960845356529</v>
@@ -30508,7 +30508,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T41" t="n">
         <v>240.5960845356529</v>
@@ -30542,16 +30542,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H42" t="n">
         <v>125.6800758778345</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525224</v>
+        <v>28.1654265526713</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30593,16 +30593,16 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="W42" t="n">
-        <v>67.48665238950494</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30721,16 +30721,16 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
+        <v>49.70367713529426</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="L44" t="n">
-        <v>81.20446222232651</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>240.5960845356529</v>
@@ -30745,10 +30745,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30794,7 +30794,7 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>51.93274503525224</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265637</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
@@ -30830,13 +30830,13 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>60.32365849101936</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
-        <v>190.9858106864442</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30864,13 +30864,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>240.5960845356529</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.6959616282545</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7816030517371</v>
+        <v>214.0870461330661</v>
       </c>
       <c r="I46" t="n">
         <v>164.7082190429235</v>
@@ -30900,7 +30900,7 @@
         <v>126.8139378168763</v>
       </c>
       <c r="R46" t="n">
-        <v>203.2135377342752</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S46" t="n">
         <v>235.3541616935673</v>
@@ -30918,7 +30918,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="X46" t="n">
-        <v>224.6148721011533</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N11" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R11" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S11" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J12" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,19 +31914,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J13" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N13" t="n">
         <v>28.65489236627316</v>
@@ -31935,19 +31935,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q13" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U13" t="n">
         <v>0.01021382725584501</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N14" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R14" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S14" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J15" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,19 +32151,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J16" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N16" t="n">
         <v>28.65489236627316</v>
@@ -32172,19 +32172,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q16" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U16" t="n">
         <v>0.01021382725584501</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N17" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R17" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S17" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J18" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,19 +32388,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J19" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N19" t="n">
         <v>28.65489236627316</v>
@@ -32409,19 +32409,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q19" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U19" t="n">
         <v>0.01021382725584501</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N20" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R20" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S20" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J21" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,19 +32625,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J22" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N22" t="n">
         <v>28.65489236627316</v>
@@ -32646,19 +32646,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q22" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U22" t="n">
         <v>0.01021382725584501</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N23" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R23" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S23" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J24" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,19 +32862,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J25" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N25" t="n">
         <v>28.65489236627316</v>
@@ -32883,19 +32883,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q25" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U25" t="n">
         <v>0.01021382725584501</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N26" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R26" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S26" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J27" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,19 +33099,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J28" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N28" t="n">
         <v>28.65489236627316</v>
@@ -33120,19 +33120,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q28" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U28" t="n">
         <v>0.01021382725584501</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N29" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R29" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S29" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J30" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,19 +33336,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J31" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N31" t="n">
         <v>28.65489236627316</v>
@@ -33357,19 +33357,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q31" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U31" t="n">
         <v>0.01021382725584501</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282597</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771012</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N32" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138988</v>
+        <v>60.0297679913899</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050421</v>
       </c>
       <c r="R32" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S32" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995879</v>
       </c>
       <c r="J33" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046699</v>
+        <v>48.496488390467</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337345</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361202</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614334</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.90027821090474</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,19 +33573,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J34" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N34" t="n">
         <v>28.65489236627316</v>
@@ -33594,19 +33594,19 @@
         <v>26.46743102897968</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q34" t="n">
         <v>15.67992714226471</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S34" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411913</v>
       </c>
       <c r="U34" t="n">
         <v>0.01021382725584501</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.5115880530825</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K11" t="n">
-        <v>11.92318427313264</v>
+        <v>117.9276633123109</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301755</v>
       </c>
       <c r="M11" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N11" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.8295037361488</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030303829</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L12" t="n">
-        <v>31.55186885953243</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0492982736046</v>
+        <v>116.6118913185622</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.45559345640808</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,25 +35562,25 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.67425663193114</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>78.35177008927131</v>
+        <v>104.1331069137492</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.0492982736046</v>
+        <v>8.385474052609947</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301755</v>
       </c>
       <c r="M14" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N14" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P14" t="n">
-        <v>8.38547405261059</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Q14" t="n">
         <v>105.8295037361488</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303829</v>
+        <v>0.1749753030303332</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M15" t="n">
-        <v>33.83647831747496</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736046</v>
+        <v>80.12873768029858</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534065</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,34 +35778,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.76555500988664</v>
+        <v>16.76555500988658</v>
       </c>
       <c r="C16" t="n">
-        <v>27.92529470288238</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.19982542414402</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70633446262974</v>
+        <v>52.70633446262968</v>
       </c>
       <c r="F16" t="n">
-        <v>55.45559345640808</v>
+        <v>55.45559345640802</v>
       </c>
       <c r="G16" t="n">
-        <v>5.200778231807566</v>
+        <v>25.6865140466002</v>
       </c>
       <c r="H16" t="n">
-        <v>28.60087262311759</v>
+        <v>7.99987035385061</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.67425663193114</v>
       </c>
       <c r="J16" t="n">
-        <v>74.48316832403397</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.56853785797847</v>
+        <v>67.56853785797841</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.37106813136393</v>
+        <v>80.28369907349915</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>85.42545174145411</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301755</v>
       </c>
       <c r="M17" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N17" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.60730859266531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.46087464136508</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>70.7301005504401</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N18" t="n">
-        <v>33.83647831747496</v>
+        <v>116.6118913185622</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,28 +36115,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.28369907349909</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301755</v>
       </c>
       <c r="M20" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N20" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P20" t="n">
-        <v>34.10625401829064</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>67.2482761735882</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>98.46087464136508</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L21" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N21" t="n">
-        <v>116.6118913185629</v>
+        <v>80.12873768029858</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P21" t="n">
-        <v>85.56614463534065</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,28 +36352,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.28369907349909</v>
       </c>
       <c r="J23" t="n">
-        <v>67.24827617358906</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>34.1062540182905</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301755</v>
       </c>
       <c r="M23" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N23" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136508</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.73010055044004</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L24" t="n">
         <v>119.764688815662</v>
@@ -36446,13 +36446,13 @@
         <v>122.0492982736045</v>
       </c>
       <c r="N24" t="n">
-        <v>116.6118913185628</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>80.12873768029893</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534065</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>296.4800117967433</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132963</v>
+        <v>290.9205946132968</v>
       </c>
       <c r="O26" t="n">
         <v>249.2914106816557</v>
@@ -36616,7 +36616,7 @@
         <v>124.3641853094344</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631596</v>
+        <v>18.70965687631594</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L27" t="n">
         <v>119.764688815662</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.73450699742958</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>168.7840099035199</v>
       </c>
       <c r="M28" t="n">
-        <v>39.38495101890914</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>197.1335658820402</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019831</v>
       </c>
       <c r="L29" t="n">
         <v>261.8032688511578</v>
@@ -36853,7 +36853,7 @@
         <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631596</v>
+        <v>18.70965687631594</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L30" t="n">
         <v>119.764688815662</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36975,19 +36975,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>51.07053317852721</v>
+        <v>60.39990572998587</v>
       </c>
       <c r="G31" t="n">
-        <v>44.22119561988584</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.20893820521677</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.01784989731955</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1186111709636</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>124.3641853094344</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631596</v>
+        <v>18.70965687631593</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L33" t="n">
         <v>119.764688815662</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.73450699742961</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>22.33761497714789</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4463949263719</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1186111709636</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>60.39990572998587</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900929</v>
+        <v>172.2223462900928</v>
       </c>
       <c r="K35" t="n">
         <v>242.7309919657081</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301748</v>
+        <v>194.9133651218123</v>
       </c>
       <c r="M35" t="n">
         <v>83.56285454860294</v>
       </c>
       <c r="N35" t="n">
-        <v>326.0966712770216</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O35" t="n">
         <v>36.37425343351535</v>
       </c>
       <c r="P35" t="n">
-        <v>132.4783295838753</v>
+        <v>234.5443099769469</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5402619731592</v>
+        <v>159.5402619731591</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004079</v>
+        <v>53.88573354004073</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537844</v>
+        <v>20.82075889537838</v>
       </c>
       <c r="T35" t="n">
-        <v>25.67432494407822</v>
+        <v>25.67432494407816</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.149682975801515</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>82.31163086012796</v>
       </c>
       <c r="I37" t="n">
-        <v>83.38501486894161</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.076298966987756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900929</v>
+        <v>172.2223462900928</v>
       </c>
       <c r="K38" t="n">
         <v>242.7309919657081</v>
@@ -37549,28 +37549,28 @@
         <v>48.88611160301748</v>
       </c>
       <c r="M38" t="n">
-        <v>83.56285454860294</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="N38" t="n">
-        <v>210.4817669490318</v>
+        <v>326.0966712770215</v>
       </c>
       <c r="O38" t="n">
-        <v>284.4674873453805</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5402619731592</v>
+        <v>147.0719798948437</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004079</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537844</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407822</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.47631324689706</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>84.46131383592947</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>13.9850005890323</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
-        <v>235.2338425894959</v>
+        <v>44.34143518913724</v>
       </c>
       <c r="L41" t="n">
-        <v>111.9133982574779</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1589390842559</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N41" t="n">
-        <v>78.00343736515646</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O41" t="n">
-        <v>36.37425343351535</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
         <v>227.0471606007347</v>
@@ -37804,7 +37804,7 @@
         <v>46.38858416382858</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.32360951916623</v>
       </c>
       <c r="T41" t="n">
         <v>18.17717556786601</v>
@@ -38017,16 +38017,16 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>235.2338425894959</v>
+        <v>44.34143518913724</v>
       </c>
       <c r="L44" t="n">
-        <v>130.090573825344</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M44" t="n">
         <v>83.56285454860294</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00343736515644</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
         <v>276.9703379691683</v>
@@ -38041,10 +38041,10 @@
         <v>46.38858416382858</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.32360951916623</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17717556786601</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,13 +38160,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>101.6692023172063</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>48.30544308132891</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.38254680137773</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.695416692910764</v>
+        <v>18.67662912741042</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
